--- a/analise_metricas_v2.xlsx
+++ b/analise_metricas_v2.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumo Geral" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Análise por Fila" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Gráficos" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resumo Geral" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Análise por Fila" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,21 +28,23 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCCCCC"/>
+        <bgColor rgb="00CCCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,14 +52,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,161 +438,88 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="26" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Resumo das Métricas do Sistema - Configuração Melhorada V2</t>
+          <t>Métrica</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Valor</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Fila</t>
+          <t>Tempo Total de Simulação</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>População Média</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Throughput</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Utilização (%)</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+          <t>234290.42 minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Número Total de Clientes</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Clientes Perdidos</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Throughput Total</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>0.1000 clientes/min</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Tempo Médio de Resposta</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Clientes Perdidos</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Triagem</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.98</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Emergência</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0304</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Consulta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0696</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26.16</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Internação</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0296</v>
-      </c>
-      <c r="D6" t="n">
-        <v>99.86</v>
-      </c>
-      <c r="E6" t="n">
-        <v>363.46</v>
-      </c>
-      <c r="F6" t="n">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Alta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0973</v>
-      </c>
-      <c r="D7" t="n">
-        <v>14.58</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>363.46 minutos</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -587,117 +528,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Análise Detalhada por Fila - V2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Triagem</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>M/M/3/15</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Eficiência melhorada com redução de utilização</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Emergência</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>M/M/4/12</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Tempo de espera eliminado</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Consulta</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>M/M/4/20</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Utilização reduzida em 43.62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Internação</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>M/M/4/15</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Redução de 91.23% nos clientes perdidos</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Alta</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M/M/2/25</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Throughput aumentado em 32.87%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -712,11 +542,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Gráficos de Comparação V2</t>
-        </is>
-      </c>
+      <c r="A1" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
